--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF6053-7AD2-49C1-9589-31107B22CF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C37C75-CA07-4060-8B4D-81C4839CCA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Wg</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t>NGC-3475/T1813/T1881/T1816/T1818/T1820</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653/T2654/T2656</t>
   </si>
 </sst>
 </file>
@@ -509,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,4 +801,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A296BEA-EB90-46D3-A697-51997E34E6CF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C37C75-CA07-4060-8B4D-81C4839CCA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B29F3-589C-4B4B-9F17-4CBAB0E268CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -93,6 +94,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653/T2654/T2656</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T-2459/T-2460/T2461</t>
   </si>
 </sst>
 </file>
@@ -517,7 +524,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A296BEA-EB90-46D3-A697-51997E34E6CF}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -898,4 +905,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068DA460-6886-47F6-871E-2D00EA9E118B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B29F3-589C-4B4B-9F17-4CBAB0E268CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4739568-8EAA-4A62-BB0F-1E7596BC0ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>NGC-3479/T-2459/T-2460/T2461</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2930/T3236/T3235/T3234/T3237  </t>
   </si>
 </sst>
 </file>
@@ -911,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068DA460-6886-47F6-871E-2D00EA9E118B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,4 +1009,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9A199D-205E-404A-9844-26F45D7A2152}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4739568-8EAA-4A62-BB0F-1E7596BC0ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECB89D-BCCE-411C-9832-6E96403BC626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -107,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-2930/T3236/T3235/T3234/T3237  </t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453/NGC-3145/T2446</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9A199D-205E-404A-9844-26F45D7A2152}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,4 +1113,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F74B05-EC41-4438-939E-1A1BDD71FBEE}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECB89D-BCCE-411C-9832-6E96403BC626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8938C13-55BE-4DEE-BC15-2AAC4CC0AB46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453/NGC-3145/T2446</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F74B05-EC41-4438-939E-1A1BDD71FBEE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,4 +1217,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD69C3-67AF-42B7-B3C8-BEE0C7AF1730}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8938C13-55BE-4DEE-BC15-2AAC4CC0AB46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DB07D-9CC7-450E-B843-713E23236B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2063</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3325/T3324</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD69C3-67AF-42B7-B3C8-BEE0C7AF1730}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,4 +1320,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51227872-AADF-4CA7-9EB2-EE26EFECACDF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DB07D-9CC7-450E-B843-713E23236B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AEF10-A87C-4AC8-B9CF-F9174644D0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -128,6 +129,12 @@
   </si>
   <si>
     <t>NGC-3191/T3325/T3324</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2486/T2485</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -555,15 +562,15 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -571,7 +578,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,7 +590,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -605,31 +612,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6C947-8C53-458C-B71B-77E2F4FA5E3F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -652,15 +753,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -668,7 +769,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,7 +781,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -690,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -702,31 +803,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -749,15 +850,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -765,7 +866,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -777,7 +878,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,31 +900,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -846,15 +947,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -862,7 +963,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -874,7 +975,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,31 +997,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -943,15 +1044,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -959,7 +1060,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -971,7 +1072,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -981,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,31 +1094,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1040,15 +1141,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1157,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1169,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,31 +1191,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1137,15 +1238,15 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +1254,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1266,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1187,31 +1288,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1234,14 +1335,14 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1350,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1362,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1283,31 +1384,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1326,16 +1427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51227872-AADF-4CA7-9EB2-EE26EFECACDF}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1444,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1456,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1377,31 +1478,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AEF10-A87C-4AC8-B9CF-F9174644D0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65787F-AE37-49FE-B136-B620BFAF760B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3190</t>
   </si>
 </sst>
 </file>
@@ -562,15 +569,15 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -578,7 +585,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -590,7 +597,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,31 +619,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -655,16 +662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6C947-8C53-458C-B71B-77E2F4FA5E3F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -672,7 +679,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -684,7 +691,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -694,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -706,31 +713,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3473560-7061-4BB6-A9A2-062EA68B7720}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -753,15 +854,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -769,7 +870,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -781,7 +882,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,31 +904,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -850,15 +951,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -866,7 +967,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -878,7 +979,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,31 +1001,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -947,15 +1048,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -963,7 +1064,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1076,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,31 +1098,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1044,15 +1145,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1161,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1173,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1094,31 +1195,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1141,15 +1242,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1258,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1270,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1191,31 +1292,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1238,15 +1339,15 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1355,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1367,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1288,31 +1389,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1335,14 +1436,14 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1451,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1463,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1384,31 +1485,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1431,12 +1532,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1545,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1557,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1478,31 +1579,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65787F-AE37-49FE-B136-B620BFAF760B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7FDCB-913A-4E4E-967E-3D2769D203D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -142,6 +145,27 @@
   </si>
   <si>
     <t>NGC-4119/T3190</t>
+  </si>
+  <si>
+    <t>NGC-4330/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Fire Brigade Panel</t>
   </si>
 </sst>
 </file>
@@ -756,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3473560-7061-4BB6-A9A2-062EA68B7720}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -801,6 +825,302 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B5667-D0FE-4132-8CAB-4B5B099054FD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B76810-BCCA-4CE5-B1C9-13D27C4B28E2}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA21F83-51B3-4343-992E-68A41E95C4DD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7FDCB-913A-4E4E-967E-3D2769D203D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371F96D-C7F8-4A85-9E17-790D34EB7D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +169,24 @@
   </si>
   <si>
     <t>Fire Brigade Panel</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -971,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B76810-BCCA-4CE5-B1C9-13D27C4B28E2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1166,6 +1187,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407C58C9-4DFE-45D3-9FEB-9F8B600F2F85}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C0C4E1-8BAC-47A8-9752-398DB78B6699}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0336F-8E2B-4A70-91C9-276A561ADA64}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D46FC-4930-4BB4-BBC9-D454EC5BF909}">
   <dimension ref="A1:D10"/>

--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371F96D-C7F8-4A85-9E17-790D34EB7D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EB17F-81C6-4DF2-89B0-1F8F932E19D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="50">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +189,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3078</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3121/T3119/T3113</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0336F-8E2B-4A70-91C9-276A561ADA64}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
@@ -1437,6 +1451,194 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0153AA2-E601-4646-87BF-4AA29A309E6F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7D39A-01F2-4920-ADA2-FF69BBF872E2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EB17F-81C6-4DF2-89B0-1F8F932E19D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16A87F-5DE8-421D-8398-7B1B52DB1252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -201,6 +202,15 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3345/T3343/T3342</t>
+  </si>
+  <si>
+    <t>UK Market</t>
+  </si>
+  <si>
+    <t>GMPIM</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0153AA2-E601-4646-87BF-4AA29A309E6F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1774,6 +1784,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C1E88F-EDEA-4649-B813-81B0F0183256}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E096EBD-0F0F-45A1-8698-14BFBAD7DB3A}">
   <dimension ref="A1:D10"/>
